--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/UTAH_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/UTAH_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1242"/>
+  <dimension ref="A1:D1236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C52">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C58">
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="D62">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="63">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C89">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C91">
@@ -1602,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="D93">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="94">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C109">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C110">
@@ -1894,7 +1894,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C116">
@@ -2177,7 +2177,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C137">
@@ -2203,7 +2203,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C143">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C158">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C169">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C172">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C178">
@@ -2824,12 +2824,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C186">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C190">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C195">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C201">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C204">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C210">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C216">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C227">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C236">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C238">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C247">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C257">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C261">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C272">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C273">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C280">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C284">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C292">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C296">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C298">
@@ -4316,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C300">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C302">
@@ -4368,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C304">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C308">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C313">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C317">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C321">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C324">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C328">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C329">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C330">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C336">
@@ -4822,13 +4822,13 @@
         <v>9</v>
       </c>
       <c r="D338">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C340">
@@ -4874,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="D342">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="343">
@@ -4900,7 +4900,7 @@
         <v>98</v>
       </c>
       <c r="D344">
-        <v>0.009869083585095671</v>
+        <v>0.009869083585095672</v>
       </c>
     </row>
     <row r="345">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C346">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C347">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C349">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C350">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C352">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C367">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C369">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C372">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C375">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C376">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C385">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,14 +5496,14 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C390">
         <v>9</v>
       </c>
       <c r="D390">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="391">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C395">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C397">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C400">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C403">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C407">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C408">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C409">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C410">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C412">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C415">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C418">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C422">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C426">
@@ -5977,7 +5977,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C427">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C429">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C430">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C434">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C435">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C438">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C441">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C443">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C448">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C455">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C456">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C462">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C468">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C470">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C474">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C479">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C486">
@@ -6808,13 +6808,13 @@
         <v>9</v>
       </c>
       <c r="D490">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C491">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C493">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C497">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C500">
@@ -6944,14 +6944,14 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C501">
         <v>9</v>
       </c>
       <c r="D501">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="502">
@@ -6977,7 +6977,7 @@
         <v>9</v>
       </c>
       <c r="D503">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="504">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C505">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C506">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C509">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C510">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C519">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C520">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C525">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C526">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C529">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C530">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C531">
@@ -7638,7 +7638,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C554">
@@ -7775,7 +7775,7 @@
         <v>9</v>
       </c>
       <c r="D564">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="565">
@@ -8139,7 +8139,7 @@
         <v>9</v>
       </c>
       <c r="D592">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="593">
@@ -8191,7 +8191,7 @@
         <v>9</v>
       </c>
       <c r="D596">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="597">
@@ -8321,7 +8321,7 @@
         <v>9</v>
       </c>
       <c r="D606">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="607">
@@ -8392,7 +8392,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C612">
@@ -8696,7 +8696,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C635">
@@ -8774,7 +8774,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C641">
@@ -8813,7 +8813,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C644">
@@ -8865,7 +8865,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C648">
@@ -8974,7 +8974,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C656">
@@ -8987,7 +8987,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C657">
@@ -9039,7 +9039,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C661">
@@ -9085,7 +9085,7 @@
         <v>9</v>
       </c>
       <c r="D664">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="665">
@@ -9130,7 +9130,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C668">
@@ -9291,7 +9291,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C680">
@@ -9317,7 +9317,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C682">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C685">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C689">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C691">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C694">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C696">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C697">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C698">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C699">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C700">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C704">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C708">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C709">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C710">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C715">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C726">
@@ -10037,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C737">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C758">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C766">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C774">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C780">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C787">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C796">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C818">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C824">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C825">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C826">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C827">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C828">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C829">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C830">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C831">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C832">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C833">
@@ -11349,7 +11349,7 @@
         <v>9</v>
       </c>
       <c r="D837">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="838">
@@ -11375,7 +11375,7 @@
         <v>9</v>
       </c>
       <c r="D839">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="840">
@@ -11492,7 +11492,7 @@
         <v>9</v>
       </c>
       <c r="D848">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="849">
@@ -11537,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C852">
@@ -11589,7 +11589,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C856">
@@ -11706,7 +11706,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C865">
@@ -11784,7 +11784,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C871">
@@ -11830,7 +11830,7 @@
         <v>9</v>
       </c>
       <c r="D874">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="875">
@@ -11862,7 +11862,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C877">
@@ -11973,7 +11973,7 @@
         <v>9</v>
       </c>
       <c r="D885">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="886">
@@ -11986,13 +11986,13 @@
         <v>9</v>
       </c>
       <c r="D886">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C887">
@@ -12018,7 +12018,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C889">
@@ -12031,7 +12031,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C890">
@@ -12109,7 +12109,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C896">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C900">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C901">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C904">
@@ -12239,7 +12239,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C906">
@@ -12291,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C910">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C916">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C932">
@@ -12608,7 +12608,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C934">
@@ -12634,7 +12634,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C936">
@@ -12673,7 +12673,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C939">
@@ -12774,7 +12774,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C946">
@@ -12826,7 +12826,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C950">
@@ -12891,7 +12891,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C955">
@@ -12982,7 +12982,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C962">
@@ -13060,7 +13060,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C968">
@@ -13073,7 +13073,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C969">
@@ -13086,7 +13086,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C970">
@@ -13254,7 +13254,7 @@
         <v>9</v>
       </c>
       <c r="D982">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="983">
@@ -13467,7 +13467,7 @@
         <v>9</v>
       </c>
       <c r="D998">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="999">
@@ -13616,7 +13616,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1010">
@@ -13732,7 +13732,7 @@
         <v>9</v>
       </c>
       <c r="D1018">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="1019">
@@ -13932,7 +13932,7 @@
         <v>9</v>
       </c>
       <c r="D1033">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="1034">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1040">
@@ -14073,7 +14073,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1044">
@@ -14125,7 +14125,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1048">
@@ -14151,7 +14151,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1050">
@@ -14164,7 +14164,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1051">
@@ -14203,7 +14203,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1054">
@@ -14216,7 +14216,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1055">
@@ -14242,7 +14242,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1057">
@@ -14340,7 +14340,7 @@
         <v>91</v>
       </c>
       <c r="D1064">
-        <v>0.009164149043303121</v>
+        <v>0.00916414904330312</v>
       </c>
     </row>
     <row r="1065">
@@ -14429,7 +14429,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1071">
@@ -14468,7 +14468,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1074">
@@ -14559,7 +14559,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1081">
@@ -14598,7 +14598,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1084">
@@ -14663,7 +14663,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1089">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1095">
@@ -14813,7 +14813,7 @@
         <v>9</v>
       </c>
       <c r="D1100">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="1101">
@@ -14910,7 +14910,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1108">
@@ -14936,7 +14936,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1110">
@@ -15014,7 +15014,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1116">
@@ -15047,7 +15047,7 @@
         <v>9</v>
       </c>
       <c r="D1118">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="1119">
@@ -15066,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1120">
@@ -15105,7 +15105,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1123">
@@ -15118,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1124">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1134">
@@ -15261,7 +15261,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1135">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1137">
@@ -15391,7 +15391,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1145">
@@ -15677,7 +15677,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1167">
@@ -15723,7 +15723,7 @@
         <v>9</v>
       </c>
       <c r="D1170">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="1171">
@@ -16032,7 +16032,7 @@
         <v>9</v>
       </c>
       <c r="D1193">
-        <v>0.0009063444108761329</v>
+        <v>0.0009063444108761328</v>
       </c>
     </row>
     <row r="1194">
@@ -16090,7 +16090,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1198">
@@ -16246,7 +16246,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1210">
@@ -16311,7 +16311,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1215">
@@ -16324,7 +16324,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1216">
@@ -16467,7 +16467,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1227">
@@ -16480,7 +16480,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1228">
@@ -16506,7 +16506,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1230">
@@ -16592,41 +16592,6 @@
       </c>
       <c r="D1236">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
